--- a/Data/aearep-1213/candidatepackages.xlsx
+++ b/Data/aearep-1213/candidatepackages.xlsx
@@ -14,38 +14,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>table1</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>listtex</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
     <t>report</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>norm</t>
-  </si>
-  <si>
     <t>levels</t>
   </si>
   <si>
@@ -58,21 +46,12 @@
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
     <t>next</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>mail</t>
   </si>
   <si>
@@ -91,24 +70,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1213</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1213/120319/Documentaion_AEJ_Macro/code</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1213/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>figure10.do</t>
   </si>
   <si>
@@ -131,9 +98,6 @@
   </si>
   <si>
     <t>table2_table4.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -177,7 +141,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -185,13 +149,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -199,7 +163,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -211,10 +175,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>421</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.13917355239391327</v>
       </c>
       <c r="D3"/>
     </row>
@@ -223,10 +187,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>499</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D4"/>
     </row>
@@ -235,10 +199,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>267</v>
+        <v>539</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D5"/>
     </row>
@@ -247,10 +211,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>279</v>
+        <v>611</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D6"/>
     </row>
@@ -259,10 +223,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>406</v>
+        <v>706</v>
       </c>
       <c r="C7">
-        <v>0.13461539149284363</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D7"/>
     </row>
@@ -271,10 +235,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>564</v>
+        <v>712</v>
       </c>
       <c r="C8">
-        <v>0.18700265884399414</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D8"/>
     </row>
@@ -283,10 +247,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>565</v>
+        <v>884</v>
       </c>
       <c r="C9">
-        <v>0.18733422458171844</v>
+        <v>0.29223141074180603</v>
       </c>
       <c r="D9"/>
     </row>
@@ -295,10 +259,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>594</v>
+        <v>998</v>
       </c>
       <c r="C10">
-        <v>0.19694960117340088</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D10"/>
     </row>
@@ -307,10 +271,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>694</v>
+        <v>1125</v>
       </c>
       <c r="C11">
-        <v>0.23010610044002533</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D11"/>
     </row>
@@ -319,10 +283,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>745</v>
+        <v>1880</v>
       </c>
       <c r="C12">
-        <v>0.24701590836048126</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D12"/>
     </row>
@@ -331,10 +295,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>797</v>
+        <v>2074</v>
       </c>
       <c r="C13">
-        <v>0.2642572820186615</v>
+        <v>0.68561983108520508</v>
       </c>
       <c r="D13"/>
     </row>
@@ -343,96 +307,12 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>985</v>
+        <v>2436</v>
       </c>
       <c r="C14">
-        <v>0.32659152150154114</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1124</v>
-      </c>
-      <c r="C15">
-        <v>0.37267905473709106</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1194</v>
-      </c>
-      <c r="C16">
-        <v>0.39588859677314758</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1798</v>
-      </c>
-      <c r="C17">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1817</v>
-      </c>
-      <c r="C18">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1859</v>
-      </c>
-      <c r="C19">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>2239</v>
-      </c>
-      <c r="C20">
-        <v>0.7423740029335022</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>2424</v>
-      </c>
-      <c r="C21">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D21"/>
     </row>
   </sheetData>
 </worksheet>
@@ -440,103 +320,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
